--- a/old/RunningNotes.xlsx
+++ b/old/RunningNotes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01AE5F1-4A3A-4829-B24D-63BC54D8F2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9448B6B-BF6C-4925-95DC-F9311C10C471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="936" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -23,11 +23,12 @@
     <sheet name="Complexity" sheetId="11" r:id="rId13"/>
     <sheet name="Definition" sheetId="6" r:id="rId14"/>
     <sheet name="Java" sheetId="8" r:id="rId15"/>
-    <sheet name="Software Architecture" sheetId="16" r:id="rId16"/>
-    <sheet name="Design Pattern" sheetId="3" r:id="rId17"/>
-    <sheet name="Design Priniciples" sheetId="5" r:id="rId18"/>
-    <sheet name="Java Versions" sheetId="17" r:id="rId19"/>
-    <sheet name="Thread" sheetId="12" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId16"/>
+    <sheet name="Software Architecture" sheetId="16" r:id="rId17"/>
+    <sheet name="Design Pattern" sheetId="3" r:id="rId18"/>
+    <sheet name="Design Priniciples" sheetId="5" r:id="rId19"/>
+    <sheet name="Java Versions" sheetId="17" r:id="rId20"/>
+    <sheet name="Thread" sheetId="12" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -57,7 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="445">
   <si>
     <t>ArrayList</t>
   </si>
@@ -4018,12 +4019,110 @@
   <si>
     <t>http://java-latte.blogspot.com/p/concurrency.html</t>
   </si>
+  <si>
+    <t>Java Concepts</t>
+  </si>
+  <si>
+    <t>Lambda and method references</t>
+  </si>
+  <si>
+    <t>Streams and its Methods</t>
+  </si>
+  <si>
+    <t>Anonymous Class</t>
+  </si>
+  <si>
+    <t>IO and Serialization</t>
+  </si>
+  <si>
+    <t>Regular Expressions</t>
+  </si>
+  <si>
+    <r>
+      <t>Collections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; Generics</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting </t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Threading</t>
+  </si>
+  <si>
+    <t>Basics</t>
+  </si>
+  <si>
+    <t>Executor Framework</t>
+  </si>
+  <si>
+    <t>Design Patterns</t>
+  </si>
+  <si>
+    <t>Design Principles</t>
+  </si>
+  <si>
+    <t>Java System</t>
+  </si>
+  <si>
+    <t>Java Architecture</t>
+  </si>
+  <si>
+    <t>Class Loader and Boot Strap</t>
+  </si>
+  <si>
+    <t>Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>General Algorithms</t>
+  </si>
+  <si>
+    <t>2 pointer algorithm
+3 pointer algorithm
+Sliding Window algorithm</t>
+  </si>
+  <si>
+    <t>Build Management</t>
+  </si>
+  <si>
+    <t>ANT/Maven</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>CI tools</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Hacker Rank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4095,13 +4194,28 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4133,7 +4247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4202,12 +4316,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4315,6 +4497,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4605,19 +4829,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.265625" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>193</v>
       </c>
@@ -4643,12 +4867,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>160</v>
       </c>
@@ -4665,10 +4889,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>200</v>
       </c>
@@ -4679,45 +4903,45 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
     </row>
   </sheetData>
@@ -4755,21 +4979,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="29"/>
-    <col min="2" max="2" width="20.73046875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.265625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="58.796875" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="29"/>
+    <col min="1" max="1" width="9.08984375" style="29"/>
+    <col min="2" max="2" width="20.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.26953125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="58.81640625" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>165</v>
       </c>
@@ -4777,12 +5001,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" s="29" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>161</v>
       </c>
@@ -4790,17 +5014,17 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="29" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>164</v>
       </c>
@@ -4819,36 +5043,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="45.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" ht="29" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:4" ht="29" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
         <v>268</v>
       </c>
@@ -4868,21 +5092,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>72</v>
       </c>
@@ -4893,12 +5117,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>93</v>
       </c>
@@ -4906,22 +5130,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>266</v>
       </c>
@@ -4941,21 +5165,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.86328125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="37.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.81640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>86</v>
       </c>
@@ -4968,7 +5192,7 @@
       <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
       <c r="C3" s="20" t="s">
         <v>89</v>
@@ -4978,7 +5202,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>74</v>
       </c>
@@ -4989,7 +5213,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>75</v>
       </c>
@@ -5000,7 +5224,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="22" t="s">
         <v>76</v>
       </c>
@@ -5011,11 +5235,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
         <v>73</v>
       </c>
@@ -5026,7 +5250,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
@@ -5037,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>78</v>
       </c>
@@ -5048,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
         <v>79</v>
       </c>
@@ -5059,11 +5283,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -5074,7 +5298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>82</v>
       </c>
@@ -5085,7 +5309,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>81</v>
       </c>
@@ -5096,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>83</v>
       </c>
@@ -5108,7 +5332,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -5119,7 +5343,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>85</v>
       </c>
@@ -5134,7 +5358,7 @@
       </c>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F19" s="29" t="s">
         <v>251</v>
       </c>
@@ -5142,7 +5366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="F20" s="29" t="s">
         <v>243</v>
       </c>
@@ -5150,13 +5374,13 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F21" s="29" t="s">
         <v>244</v>
       </c>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F22" s="29" t="s">
         <v>245</v>
       </c>
@@ -5164,7 +5388,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F23" s="29" t="s">
         <v>246</v>
       </c>
@@ -5172,36 +5396,36 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F24" s="29" t="s">
         <v>247</v>
       </c>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F25" s="29" t="s">
         <v>250</v>
       </c>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F26" s="29" t="s">
         <v>248</v>
       </c>
       <c r="G26" s="29"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F27" s="29" t="s">
         <v>249</v>
       </c>
       <c r="G27" s="29"/>
     </row>
-    <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="G29" s="29" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" ht="145" x14ac:dyDescent="0.35">
       <c r="G30" s="29" t="s">
         <v>291</v>
       </c>
@@ -5223,19 +5447,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="144.73046875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="144.7265625" style="29" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
@@ -5251,7 +5475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>57</v>
       </c>
@@ -5259,7 +5483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>56</v>
       </c>
@@ -5267,7 +5491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>59</v>
       </c>
@@ -5275,7 +5499,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>60</v>
       </c>
@@ -5283,7 +5507,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>178</v>
       </c>
@@ -5291,7 +5515,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>63</v>
       </c>
@@ -5299,7 +5523,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>61</v>
       </c>
@@ -5307,7 +5531,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>62</v>
       </c>
@@ -5315,17 +5539,17 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>227</v>
       </c>
@@ -5333,7 +5557,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>225</v>
       </c>
@@ -5341,7 +5565,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>226</v>
       </c>
@@ -5349,7 +5573,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>156</v>
       </c>
@@ -5357,7 +5581,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>157</v>
       </c>
@@ -5365,7 +5589,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>158</v>
       </c>
@@ -5373,7 +5597,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>386</v>
       </c>
@@ -5381,7 +5605,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>229</v>
       </c>
@@ -5389,7 +5613,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>133</v>
       </c>
@@ -5397,7 +5621,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>230</v>
       </c>
@@ -5405,7 +5629,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>231</v>
       </c>
@@ -5413,17 +5637,17 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
         <v>273</v>
       </c>
@@ -5444,24 +5668,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="146.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="145.265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="146.73046875" style="1"/>
+    <col min="1" max="1" width="9.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="145.26953125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="146.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
@@ -5469,7 +5693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>50</v>
       </c>
@@ -5477,7 +5701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>49</v>
       </c>
@@ -5485,12 +5709,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>52</v>
       </c>
@@ -5498,17 +5722,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>111</v>
       </c>
@@ -5516,12 +5740,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>337</v>
       </c>
@@ -5539,6 +5763,248 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE72B01E-A7B4-478A-97A8-7D1D669CD5CF}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
+      <c r="B3" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="50"/>
+      <c r="B6" s="46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
+      <c r="B7" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
+      <c r="B8" s="47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
+      <c r="B10" s="46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="52"/>
+      <c r="B11" s="49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="54"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="54"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="45"/>
+      <c r="B15" s="47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="45"/>
+      <c r="B16" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="48"/>
+      <c r="B18" s="55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="48"/>
+      <c r="B20" s="55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" s="54"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" s="54"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="48"/>
+      <c r="B25" s="55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="48"/>
+      <c r="B32" s="55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="53" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5546,21 +6012,21 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.08984375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>179</v>
       </c>
@@ -5568,12 +6034,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>181</v>
       </c>
@@ -5593,23 +6059,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.265625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="66.59765625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="80.59765625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="66.6328125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="80.6328125" style="29" customWidth="1"/>
     <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>209</v>
       </c>
@@ -5617,7 +6083,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="C2" s="29" t="s">
         <v>302</v>
@@ -5626,7 +6092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="27" t="s">
         <v>314</v>
@@ -5635,7 +6101,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>224</v>
       </c>
@@ -5646,7 +6112,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
         <v>278</v>
       </c>
@@ -5654,7 +6120,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
         <v>103</v>
       </c>
@@ -5665,7 +6131,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B7" s="28" t="s">
         <v>101</v>
       </c>
@@ -5676,7 +6142,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="319" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>98</v>
       </c>
@@ -5687,7 +6153,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="319" x14ac:dyDescent="0.35">
       <c r="B9" s="28" t="s">
         <v>10</v>
       </c>
@@ -5701,7 +6167,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B10" s="28" t="s">
         <v>104</v>
       </c>
@@ -5712,7 +6178,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="B11" s="28" t="s">
         <v>102</v>
       </c>
@@ -5723,17 +6189,17 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="28" t="s">
         <v>100</v>
       </c>
@@ -5741,12 +6207,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>222</v>
       </c>
@@ -5757,7 +6223,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="B18" s="28" t="s">
         <v>106</v>
       </c>
@@ -5771,7 +6237,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B19" s="28" t="s">
         <v>215</v>
       </c>
@@ -5782,7 +6248,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="B20" s="28" t="s">
         <v>217</v>
       </c>
@@ -5793,7 +6259,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B21" s="28" t="s">
         <v>216</v>
       </c>
@@ -5804,7 +6270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B22" s="28" t="s">
         <v>210</v>
       </c>
@@ -5815,23 +6281,23 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>223</v>
       </c>
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
         <v>277</v>
       </c>
@@ -5839,7 +6305,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B28" s="28" t="s">
         <v>107</v>
       </c>
@@ -5850,7 +6316,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B29" s="28" t="s">
         <v>219</v>
       </c>
@@ -5861,7 +6327,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B30" s="28" t="s">
         <v>110</v>
       </c>
@@ -5872,7 +6338,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="B31" s="28" t="s">
         <v>108</v>
       </c>
@@ -5883,17 +6349,17 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
         <v>269</v>
       </c>
@@ -5907,21 +6373,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.36328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>209</v>
       </c>
@@ -5929,7 +6395,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -5940,7 +6406,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -5951,7 +6417,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>412</v>
       </c>
@@ -5962,7 +6428,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -5973,7 +6439,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>272</v>
       </c>
@@ -5993,152 +6459,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.3984375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="B2" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{84CEA4F6-A09E-49A0-AFD3-C0B88ABBED20}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6146,27 +6485,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -6174,12 +6513,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6190,7 +6529,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>145</v>
       </c>
@@ -6198,7 +6537,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -6206,12 +6545,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -6222,22 +6561,22 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6245,7 +6584,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6253,7 +6592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -6261,7 +6600,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>221</v>
       </c>
@@ -6269,7 +6608,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -6277,12 +6616,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>323</v>
       </c>
@@ -6301,25 +6640,152 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="19.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{84CEA4F6-A09E-49A0-AFD3-C0B88ABBED20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="42"/>
-    <col min="2" max="2" width="78.59765625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="77.59765625" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="42"/>
+    <col min="1" max="1" width="9.08984375" style="42"/>
+    <col min="2" max="2" width="78.6328125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="77.6328125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="29" t="s">
         <v>372</v>
@@ -6328,7 +6794,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B3" s="29" t="s">
         <v>367</v>
       </c>
@@ -6336,7 +6802,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>373</v>
       </c>
@@ -6344,7 +6810,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="B5" s="29" t="s">
         <v>393</v>
       </c>
@@ -6352,7 +6818,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="B6" s="29" t="s">
         <v>374</v>
       </c>
@@ -6360,7 +6826,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B7" s="29" t="s">
         <v>375</v>
       </c>
@@ -6368,7 +6834,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="29" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" s="29" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>377</v>
       </c>
@@ -6376,22 +6842,22 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B9" s="29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="29" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B11" s="29" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="29" t="s">
         <v>398</v>
       </c>
@@ -6399,7 +6865,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="285" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="290" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
         <v>407</v>
       </c>
@@ -6407,7 +6873,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="29" t="s">
         <v>400</v>
       </c>
@@ -6415,32 +6881,32 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B15" s="29" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" s="29" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B17" s="29" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" ht="203" x14ac:dyDescent="0.35">
       <c r="B18" s="29" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="171" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" ht="174" x14ac:dyDescent="0.35">
       <c r="B19" s="29" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
         <v>416</v>
       </c>
@@ -6463,20 +6929,20 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>320</v>
       </c>
@@ -6499,18 +6965,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="77.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="77.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="77.3984375" style="29"/>
+    <col min="1" max="1" width="11.36328125" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="77.36328125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>281</v>
       </c>
@@ -6518,7 +6984,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="B3" s="29" t="s">
         <v>282</v>
       </c>
@@ -6526,7 +6992,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>283</v>
       </c>
@@ -6548,21 +7014,21 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="29"/>
-    <col min="2" max="2" width="90.73046875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="90.7265625" style="29" customWidth="1"/>
     <col min="3" max="3" width="65" style="29" customWidth="1"/>
     <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>209</v>
       </c>
       <c r="B1" s="37"/>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>167</v>
       </c>
@@ -6570,42 +7036,42 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="29" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="29" t="s">
         <v>364</v>
       </c>
@@ -6627,22 +7093,22 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="25"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>151</v>
       </c>
@@ -6650,17 +7116,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>318</v>
       </c>
@@ -6679,27 +7145,27 @@
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="63.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.08984375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>209</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -6707,7 +7173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -6718,7 +7184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6729,7 +7195,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -6740,7 +7206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -6749,7 +7215,7 @@
       </c>
       <c r="C7" s="18"/>
     </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -6760,7 +7226,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -6771,7 +7237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -6782,7 +7248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -6790,12 +7256,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
-    <row r="13" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -6806,7 +7272,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -6814,7 +7280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -6822,7 +7288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="348" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -6833,7 +7299,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -6844,7 +7310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -6852,12 +7318,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>123</v>
       </c>
@@ -6865,7 +7331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>127</v>
       </c>
@@ -6873,7 +7339,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>358</v>
       </c>
@@ -6881,7 +7347,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>321</v>
       </c>
@@ -6903,14 +7369,14 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="74.6328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>209</v>
       </c>
@@ -6921,13 +7387,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="24" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>170</v>
       </c>
@@ -6938,7 +7404,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>169</v>
       </c>
@@ -6946,7 +7412,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>172</v>
       </c>
@@ -6954,7 +7420,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -6965,7 +7431,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="261" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -6976,7 +7442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -6987,12 +7453,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="203" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -7003,7 +7469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>113</v>
       </c>
@@ -7011,7 +7477,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>390</v>
       </c>
@@ -7019,7 +7485,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -7047,14 +7513,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="74.6328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>209</v>
       </c>
@@ -7065,7 +7531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
@@ -7076,7 +7542,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>286</v>
       </c>
